--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_16-02/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_16-02/curvature_data.xlsx
@@ -393,86 +393,86 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57763.559226</v>
+        <v>57752.427226</v>
       </c>
       <c r="B3">
-        <v>-0.0002872409</v>
+        <v>-0.00011513892125</v>
       </c>
       <c r="C3">
-        <v>-0.0003391824</v>
+        <v>-0.00012336063412</v>
       </c>
       <c r="D3">
-        <v>-0.0001177706</v>
+        <v>-7.8928358229e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57795.427228</v>
+        <v>57763.559226</v>
       </c>
       <c r="B4">
-        <v>-0.0002771866</v>
+        <v>-0.0002872409</v>
       </c>
       <c r="C4">
-        <v>-0.0003297702</v>
+        <v>-0.0003391824</v>
       </c>
       <c r="D4">
-        <v>-0.0001289215</v>
+        <v>-0.0001177706</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>57752.427226</v>
+        <v>57785.559227</v>
       </c>
       <c r="B5">
-        <v>-0.00011513892125</v>
+        <v>-0.0004940254</v>
       </c>
       <c r="C5">
-        <v>-0.00012336063412</v>
+        <v>-0.0005654317000000001</v>
       </c>
       <c r="D5">
-        <v>-7.8928358229e-05</v>
+        <v>-0.0001509572</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57785.559227</v>
+        <v>57795.427228</v>
       </c>
       <c r="B6">
-        <v>-0.0004940254</v>
+        <v>-0.0002771866</v>
       </c>
       <c r="C6">
-        <v>-0.0005654317000000001</v>
+        <v>-0.0003297702</v>
       </c>
       <c r="D6">
-        <v>-0.0001509572</v>
+        <v>-0.0001289215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>57817.759229</v>
+        <v>57806.427228</v>
       </c>
       <c r="B7">
-        <v>-2.2992614479e-05</v>
+        <v>-0.00013689955513</v>
       </c>
       <c r="C7">
-        <v>-2.3733027212e-05</v>
+        <v>-0.00011811815579</v>
       </c>
       <c r="D7">
-        <v>-2.5921783489e-05</v>
+        <v>-8.5448662124e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57806.427228</v>
+        <v>57817.759229</v>
       </c>
       <c r="B8">
-        <v>-0.00013689955513</v>
+        <v>-2.2992614479e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00011811815579</v>
+        <v>-2.3733027212e-05</v>
       </c>
       <c r="D8">
-        <v>-8.5448662124e-05</v>
+        <v>-2.5921783489e-05</v>
       </c>
     </row>
   </sheetData>
